--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dlk1-Notch1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H2">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I2">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J2">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>1.91409141833</v>
+        <v>20.85844526337</v>
       </c>
       <c r="R2">
-        <v>17.22682276497</v>
+        <v>187.72600737033</v>
       </c>
       <c r="S2">
-        <v>0.0004604132510153667</v>
+        <v>0.004152748036245163</v>
       </c>
       <c r="T2">
-        <v>0.0004604132510153666</v>
+        <v>0.004152748036245163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H3">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I3">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J3">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>0.25308459491</v>
+        <v>3.1811133987</v>
       </c>
       <c r="R3">
-        <v>2.27776135419</v>
+        <v>28.6300205883</v>
       </c>
       <c r="S3">
-        <v>6.08766645148455E-05</v>
+        <v>0.0006333339926693206</v>
       </c>
       <c r="T3">
-        <v>6.087666451484549E-05</v>
+        <v>0.0006333339926693206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H4">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I4">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J4">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>0.584469274389</v>
+        <v>15.04195475394</v>
       </c>
       <c r="R4">
-        <v>5.260223469501</v>
+        <v>135.37759278546</v>
       </c>
       <c r="S4">
-        <v>0.0001405875373365463</v>
+        <v>0.002994731739446082</v>
       </c>
       <c r="T4">
-        <v>0.0001405875373365463</v>
+        <v>0.002994731739446082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.028147</v>
+        <v>0.35379</v>
       </c>
       <c r="H5">
-        <v>0.084441</v>
+        <v>1.06137</v>
       </c>
       <c r="I5">
-        <v>0.0007347845853173871</v>
+        <v>0.008539219707589354</v>
       </c>
       <c r="J5">
-        <v>0.0007347845853173869</v>
+        <v>0.008539219707589352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>0.3030992619153334</v>
+        <v>3.80932544733</v>
       </c>
       <c r="R5">
-        <v>2.727893357238</v>
+        <v>34.28392902597</v>
       </c>
       <c r="S5">
-        <v>7.290713245062852E-05</v>
+        <v>0.0007584059392287877</v>
       </c>
       <c r="T5">
-        <v>7.290713245062852E-05</v>
+        <v>0.0007584059392287877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H6">
         <v>110.924753</v>
       </c>
       <c r="I6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J6">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>2514.419746304224</v>
+        <v>2179.935261787442</v>
       </c>
       <c r="R6">
-        <v>22629.77771673802</v>
+        <v>19619.41735608697</v>
       </c>
       <c r="S6">
-        <v>0.6048155060551929</v>
+        <v>0.4340075093433295</v>
       </c>
       <c r="T6">
-        <v>0.6048155060551929</v>
+        <v>0.4340075093433295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H7">
         <v>110.924753</v>
       </c>
       <c r="I7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J7">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>332.4610814473633</v>
@@ -883,10 +883,10 @@
         <v>2992.14973302627</v>
       </c>
       <c r="S7">
-        <v>0.07996978925845384</v>
+        <v>0.06619031695200371</v>
       </c>
       <c r="T7">
-        <v>0.07996978925845384</v>
+        <v>0.06619031695200371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H8">
         <v>110.924753</v>
       </c>
       <c r="I8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J8">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>767.779987182637</v>
+        <v>1572.048499315008</v>
       </c>
       <c r="R8">
-        <v>6910.019884643733</v>
+        <v>14148.43649383507</v>
       </c>
       <c r="S8">
-        <v>0.1846808760428545</v>
+        <v>0.3129821631469864</v>
       </c>
       <c r="T8">
-        <v>0.1846808760428546</v>
+        <v>0.3129821631469864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.97491766666667</v>
+        <v>36.97491766666666</v>
       </c>
       <c r="H9">
         <v>110.924753</v>
       </c>
       <c r="I9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408624</v>
       </c>
       <c r="J9">
-        <v>0.9652396186039789</v>
+        <v>0.8924416903408623</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>398.1621577484949</v>
+        <v>398.1160993260547</v>
       </c>
       <c r="R9">
-        <v>3583.459419736454</v>
+        <v>3583.044893934493</v>
       </c>
       <c r="S9">
-        <v>0.09577344724747756</v>
+        <v>0.0792617008985427</v>
       </c>
       <c r="T9">
-        <v>0.09577344724747758</v>
+        <v>0.07926170089854272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H10">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I10">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J10">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>88.63564119379667</v>
+        <v>241.8703744028794</v>
       </c>
       <c r="R10">
-        <v>797.7207707441701</v>
+        <v>2176.833369625915</v>
       </c>
       <c r="S10">
-        <v>0.02132031068478035</v>
+        <v>0.04815443862881462</v>
       </c>
       <c r="T10">
-        <v>0.02132031068478035</v>
+        <v>0.04815443862881461</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H11">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I11">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J11">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>11.71956319917667</v>
+        <v>36.88755700851666</v>
       </c>
       <c r="R11">
-        <v>105.47606879259</v>
+        <v>331.98801307665</v>
       </c>
       <c r="S11">
-        <v>0.002819009657188017</v>
+        <v>0.007344014762117016</v>
       </c>
       <c r="T11">
-        <v>0.002819009657188017</v>
+        <v>0.007344014762117016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H12">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I12">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J12">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>27.064960637429</v>
+        <v>174.4235096215811</v>
       </c>
       <c r="R12">
-        <v>243.584645736861</v>
+        <v>1569.81158659423</v>
       </c>
       <c r="S12">
-        <v>0.006510173127756667</v>
+        <v>0.03472631243173406</v>
       </c>
       <c r="T12">
-        <v>0.006510173127756667</v>
+        <v>0.03472631243173405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.303400333333333</v>
+        <v>4.102478333333333</v>
       </c>
       <c r="H13">
-        <v>3.910201</v>
+        <v>12.307435</v>
       </c>
       <c r="I13">
-        <v>0.0340255968107037</v>
+        <v>0.09901908995154843</v>
       </c>
       <c r="J13">
-        <v>0.0340255968107037</v>
+        <v>0.0990190899515484</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>14.03558741654644</v>
+        <v>44.17217872830388</v>
       </c>
       <c r="R13">
-        <v>126.320286748918</v>
+        <v>397.5496085547349</v>
       </c>
       <c r="S13">
-        <v>0.003376103340978672</v>
+        <v>0.00879432412888272</v>
       </c>
       <c r="T13">
-        <v>0.003376103340978672</v>
+        <v>0.00879432412888272</v>
       </c>
     </row>
   </sheetData>
